--- a/downloaded_files/CMPS201_Lecture-35668.xlsx
+++ b/downloaded_files/CMPS201_Lecture-35668.xlsx
@@ -2286,11 +2286,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Microprocessor Systems (CMPS201) Location : [3702]3702-60-الجيزة الرئيسي Time : Tuesday(9:11)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Microprocessor Systems (CMPS201) Location : [3701]مدرج أولى حاسبات-60-الجيزة الرئيسي Time : Tuesday(9:11)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Microprocessor Systems (CMPS201) Location : [3702]3702-60-الجيزة الرئيسي Time : Tuesday(9:11)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Microprocessor Systems (CMPS201) Location : [3701]مدرج أولى حاسبات-60-الجيزة الرئيسي Time : Tuesday(9:11)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Microprocessor Systems (CMPS201) Location : [3702]3702-60-الجيزة الرئيسي Time : Tuesday(9:11)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Microprocessor Systems (CMPS201) Location : [3701]مدرج أولى حاسبات-60-الجيزة الرئيسي Time : Tuesday(9:11)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:rowBreaks count="1" manualBreakCount="1">

--- a/downloaded_files/CMPS201_Lecture-35668.xlsx
+++ b/downloaded_files/CMPS201_Lecture-35668.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -58,15 +58,6 @@
   </x:si>
   <x:si>
     <x:t>Ibrahim Yasser Ibrahim Farhat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230009</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد طارق احمد اسماعيل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Tarek Ahmed Ismail</x:t>
   </x:si>
   <x:si>
     <x:t>1230157</x:t>
@@ -530,7 +521,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -830,7 +821,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T44"/>
+  <x:dimension ref="A1:T43"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1017,7 +1008,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4191304745</x:v>
+        <x:v>45907.4415896644</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1049,7 +1040,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4415896644</x:v>
+        <x:v>45909.6957830671</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1081,7 +1072,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45909.6957830671</x:v>
+        <x:v>45909.4158261574</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1113,7 +1104,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.4158261574</x:v>
+        <x:v>45907.4212832523</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1145,7 +1136,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4212832523</x:v>
+        <x:v>45907.4181060185</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1177,7 +1168,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4181060185</x:v>
+        <x:v>45909.4304964468</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1209,7 +1200,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.4304964468</x:v>
+        <x:v>45907.4146253472</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1241,7 +1232,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4146253472</x:v>
+        <x:v>45907.4199981134</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1273,7 +1264,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4199981134</x:v>
+        <x:v>45907.4142248032</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1305,7 +1296,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4142248032</x:v>
+        <x:v>45909.4377708333</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1337,7 +1328,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.4377708333</x:v>
+        <x:v>45907.419643206</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1369,7 +1360,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.419643206</x:v>
+        <x:v>45907.414719213</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1401,7 +1392,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.414719213</x:v>
+        <x:v>45907.4295528935</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1433,7 +1424,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4295528935</x:v>
+        <x:v>45907.4209761921</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1465,7 +1456,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4209761921</x:v>
+        <x:v>45907.4155685995</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1497,7 +1488,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4155685995</x:v>
+        <x:v>45907.423358831</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1529,7 +1520,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.423358831</x:v>
+        <x:v>45907.4154735301</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1561,7 +1552,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4154735301</x:v>
+        <x:v>45918.1092825579</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1589,11 +1580,9 @@
       <x:c r="C23" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
+      <x:c r="D23" s="2" t="s"/>
       <x:c r="E23" s="3">
-        <x:v>45918.1092825579</x:v>
+        <x:v>45907.6650284722</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1616,14 +1605,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="C24" s="2" t="s">
+      <x:c r="D24" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s"/>
       <x:c r="E24" s="3">
-        <x:v>45907.6650284722</x:v>
+        <x:v>45907.4144332523</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1655,7 +1646,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4144332523</x:v>
+        <x:v>45907.4202964931</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1687,7 +1678,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4202964931</x:v>
+        <x:v>45907.4200689468</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1719,7 +1710,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4200689468</x:v>
+        <x:v>45907.4281221875</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1751,7 +1742,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4281221875</x:v>
+        <x:v>45907.420471412</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1783,7 +1774,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.420471412</x:v>
+        <x:v>45909.4198889236</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1815,7 +1806,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45909.4198889236</x:v>
+        <x:v>45907.4348783565</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1847,7 +1838,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4348783565</x:v>
+        <x:v>45907.4396443634</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1879,7 +1870,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4396443634</x:v>
+        <x:v>45909.4321384259</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1911,7 +1902,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45909.4321384259</x:v>
+        <x:v>45907.4200544329</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1943,7 +1934,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4200544329</x:v>
+        <x:v>45907.4144954861</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1975,7 +1966,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4144954861</x:v>
+        <x:v>45907.4169326389</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2007,7 +1998,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4169326389</x:v>
+        <x:v>45907.4620550116</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2039,7 +2030,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4620550116</x:v>
+        <x:v>45907.4200175116</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2071,7 +2062,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.4200175116</x:v>
+        <x:v>45907.6914562847</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2103,7 +2094,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6914562847</x:v>
+        <x:v>45907.486253125</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2135,7 +2126,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.486253125</x:v>
+        <x:v>45907.42281875</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2167,7 +2158,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.42281875</x:v>
+        <x:v>45909.4416767014</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2199,7 +2190,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45909.4416767014</x:v>
+        <x:v>45907.4207256597</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2231,7 +2222,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.4207256597</x:v>
+        <x:v>45907.4194018519</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2248,38 +2239,6 @@
       <x:c r="R43" s="2" t="s"/>
       <x:c r="S43" s="2" t="s"/>
       <x:c r="T43" s="2" t="s"/>
-    </x:row>
-    <x:row r="44" spans="1:20">
-      <x:c r="A44" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B44" s="2" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="C44" s="2" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="D44" s="2" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="E44" s="3">
-        <x:v>45907.4194018519</x:v>
-      </x:c>
-      <x:c r="F44" s="2" t="s"/>
-      <x:c r="G44" s="2" t="s"/>
-      <x:c r="H44" s="2" t="s"/>
-      <x:c r="I44" s="2" t="s"/>
-      <x:c r="J44" s="2" t="s"/>
-      <x:c r="K44" s="2" t="s"/>
-      <x:c r="L44" s="2" t="s"/>
-      <x:c r="M44" s="2" t="s"/>
-      <x:c r="N44" s="2" t="s"/>
-      <x:c r="O44" s="2" t="s"/>
-      <x:c r="P44" s="2" t="s"/>
-      <x:c r="Q44" s="2" t="s"/>
-      <x:c r="R44" s="2" t="s"/>
-      <x:c r="S44" s="2" t="s"/>
-      <x:c r="T44" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS201_Lecture-35668.xlsx
+++ b/downloaded_files/CMPS201_Lecture-35668.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -298,6 +298,15 @@
   </x:si>
   <x:si>
     <x:t>lojain khaled ramadan mahmoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230097</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد احمد ماهر فهمى محمد عيسى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Ahmed Maher</x:t>
   </x:si>
   <x:si>
     <x:t>1230302</x:t>
@@ -521,7 +530,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -821,7 +830,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T43"/>
+  <x:dimension ref="A1:T44"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -831,7 +840,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="33.330625000000005" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="42.140625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1072,7 +1081,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45909.4158261574</x:v>
+        <x:v>45927.4705346412</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1456,7 +1465,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4155685995</x:v>
+        <x:v>45927.4315463773</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1774,7 +1783,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45909.4198889236</x:v>
+        <x:v>45927.4334084491</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1870,7 +1879,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45909.4321384259</x:v>
+        <x:v>45927.434502662</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1902,7 +1911,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4200544329</x:v>
+        <x:v>45909.4321384259</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1934,7 +1943,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4144954861</x:v>
+        <x:v>45907.4200544329</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1966,7 +1975,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4169326389</x:v>
+        <x:v>45907.4144954861</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1998,7 +2007,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4620550116</x:v>
+        <x:v>45907.4169326389</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2030,7 +2039,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4200175116</x:v>
+        <x:v>45907.4620550116</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2062,7 +2071,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6914562847</x:v>
+        <x:v>45907.4200175116</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2094,7 +2103,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.486253125</x:v>
+        <x:v>45907.6914562847</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2126,7 +2135,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.42281875</x:v>
+        <x:v>45907.486253125</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2158,7 +2167,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45909.4416767014</x:v>
+        <x:v>45907.42281875</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2190,7 +2199,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.4207256597</x:v>
+        <x:v>45909.4416767014</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2222,7 +2231,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.4194018519</x:v>
+        <x:v>45907.4207256597</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2239,6 +2248,38 @@
       <x:c r="R43" s="2" t="s"/>
       <x:c r="S43" s="2" t="s"/>
       <x:c r="T43" s="2" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:20">
+      <x:c r="A44" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="D44" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="E44" s="3">
+        <x:v>45907.4194018519</x:v>
+      </x:c>
+      <x:c r="F44" s="2" t="s"/>
+      <x:c r="G44" s="2" t="s"/>
+      <x:c r="H44" s="2" t="s"/>
+      <x:c r="I44" s="2" t="s"/>
+      <x:c r="J44" s="2" t="s"/>
+      <x:c r="K44" s="2" t="s"/>
+      <x:c r="L44" s="2" t="s"/>
+      <x:c r="M44" s="2" t="s"/>
+      <x:c r="N44" s="2" t="s"/>
+      <x:c r="O44" s="2" t="s"/>
+      <x:c r="P44" s="2" t="s"/>
+      <x:c r="Q44" s="2" t="s"/>
+      <x:c r="R44" s="2" t="s"/>
+      <x:c r="S44" s="2" t="s"/>
+      <x:c r="T44" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS201_Lecture-35668.xlsx
+++ b/downloaded_files/CMPS201_Lecture-35668.xlsx
@@ -60,6 +60,15 @@
     <x:t>Ibrahim Yasser Ibrahim Farhat</x:t>
   </x:si>
   <x:si>
+    <x:t>1230153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد شريف حمدى عبدالله</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ِAhmed Sherif Hamdi Abdullah</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230157</x:t>
   </x:si>
   <x:si>
@@ -271,15 +280,6 @@
   </x:si>
   <x:si>
     <x:t>fares</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230083</x:t>
-  </x:si>
-  <x:si>
-    <x:t>كنزي احمد حسين عبدالعزيز</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kenzie Ahmed Hussein</x:t>
   </x:si>
   <x:si>
     <x:t>1230229</x:t>
@@ -1017,7 +1017,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4415896644</x:v>
+        <x:v>45928.0423207176</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1049,7 +1049,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45909.6957830671</x:v>
+        <x:v>45907.4415896644</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1081,7 +1081,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45927.4705346412</x:v>
+        <x:v>45909.6957830671</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1113,7 +1113,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4212832523</x:v>
+        <x:v>45927.4705346412</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1145,7 +1145,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4181060185</x:v>
+        <x:v>45907.4212832523</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1177,7 +1177,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.4304964468</x:v>
+        <x:v>45907.4181060185</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1209,7 +1209,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4146253472</x:v>
+        <x:v>45909.4304964468</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1241,7 +1241,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4199981134</x:v>
+        <x:v>45907.4146253472</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1273,7 +1273,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4142248032</x:v>
+        <x:v>45907.4199981134</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1305,7 +1305,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.4377708333</x:v>
+        <x:v>45907.4142248032</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1337,7 +1337,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.419643206</x:v>
+        <x:v>45909.4377708333</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1369,7 +1369,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.414719213</x:v>
+        <x:v>45907.419643206</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1401,7 +1401,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4295528935</x:v>
+        <x:v>45907.414719213</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1433,7 +1433,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4209761921</x:v>
+        <x:v>45907.4295528935</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1465,7 +1465,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.4315463773</x:v>
+        <x:v>45907.4209761921</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1497,7 +1497,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.423358831</x:v>
+        <x:v>45927.4315463773</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1529,7 +1529,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4154735301</x:v>
+        <x:v>45927.924259838</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1561,7 +1561,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45918.1092825579</x:v>
+        <x:v>45907.4154735301</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1589,9 +1589,11 @@
       <x:c r="C23" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s"/>
+      <x:c r="D23" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6650284722</x:v>
+        <x:v>45918.1092825579</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1614,16 +1616,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
+      <x:c r="D24" s="2" t="s"/>
       <x:c r="E24" s="3">
-        <x:v>45907.4144332523</x:v>
+        <x:v>45907.6650284722</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1655,7 +1655,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4202964931</x:v>
+        <x:v>45907.4144332523</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1687,7 +1687,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4200689468</x:v>
+        <x:v>45907.4202964931</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1719,7 +1719,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4281221875</x:v>
+        <x:v>45907.4200689468</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1751,7 +1751,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.420471412</x:v>
+        <x:v>45907.4281221875</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1783,7 +1783,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45927.4334084491</x:v>
+        <x:v>45907.420471412</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>

--- a/downloaded_files/CMPS201_Lecture-35668.xlsx
+++ b/downloaded_files/CMPS201_Lecture-35668.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -177,6 +177,15 @@
     <x:t>Ziad Mohamed Abdelsamed Leithy</x:t>
   </x:si>
   <x:si>
+    <x:t>1230194</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سلمى طارق عوض مرعى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salma Tarek Awad Ali Marei</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230196</x:t>
   </x:si>
   <x:si>
@@ -352,6 +361,15 @@
   </x:si>
   <x:si>
     <x:t>Marwan Amr Ahmed Abdelfatah Yassen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220279</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مروان عمرو عبدالمجيد فؤاد احمد شكرى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marwan Amr Abdelmagid</x:t>
   </x:si>
   <x:si>
     <x:t>1230114</x:t>
@@ -530,7 +548,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -830,7 +848,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T44"/>
+  <x:dimension ref="A1:T46"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1433,7 +1451,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4295528935</x:v>
+        <x:v>45928.3955232986</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1465,7 +1483,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4209761921</x:v>
+        <x:v>45907.4295528935</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1497,7 +1515,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.4315463773</x:v>
+        <x:v>45907.4209761921</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1529,7 +1547,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.924259838</x:v>
+        <x:v>45927.4315463773</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1561,7 +1579,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4154735301</x:v>
+        <x:v>45927.924259838</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1593,7 +1611,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45918.1092825579</x:v>
+        <x:v>45907.4154735301</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1621,9 +1639,11 @@
       <x:c r="C24" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s"/>
+      <x:c r="D24" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6650284722</x:v>
+        <x:v>45918.1092825579</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1646,16 +1666,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
+      <x:c r="D25" s="2" t="s"/>
       <x:c r="E25" s="3">
-        <x:v>45907.4144332523</x:v>
+        <x:v>45907.6650284722</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1687,7 +1705,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4202964931</x:v>
+        <x:v>45907.4144332523</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1719,7 +1737,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4200689468</x:v>
+        <x:v>45907.4202964931</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1751,7 +1769,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4281221875</x:v>
+        <x:v>45907.4200689468</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1783,7 +1801,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.420471412</x:v>
+        <x:v>45907.4281221875</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1815,7 +1833,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4348783565</x:v>
+        <x:v>45907.420471412</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1847,7 +1865,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4396443634</x:v>
+        <x:v>45907.4348783565</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1879,7 +1897,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45927.434502662</x:v>
+        <x:v>45907.4396443634</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1911,7 +1929,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45909.4321384259</x:v>
+        <x:v>45927.434502662</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1943,7 +1961,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4200544329</x:v>
+        <x:v>45909.4321384259</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1975,7 +1993,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4144954861</x:v>
+        <x:v>45907.4200544329</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2007,7 +2025,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4169326389</x:v>
+        <x:v>45907.4144954861</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2039,7 +2057,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4620550116</x:v>
+        <x:v>45907.4169326389</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2071,7 +2089,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.4200175116</x:v>
+        <x:v>45907.4620550116</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2103,7 +2121,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6914562847</x:v>
+        <x:v>45928.4033412037</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2135,7 +2153,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.486253125</x:v>
+        <x:v>45907.4200175116</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2167,7 +2185,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.42281875</x:v>
+        <x:v>45907.6914562847</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2199,7 +2217,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45909.4416767014</x:v>
+        <x:v>45907.486253125</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2231,7 +2249,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.4207256597</x:v>
+        <x:v>45907.42281875</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2263,7 +2281,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.4194018519</x:v>
+        <x:v>45909.4416767014</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2280,6 +2298,70 @@
       <x:c r="R44" s="2" t="s"/>
       <x:c r="S44" s="2" t="s"/>
       <x:c r="T44" s="2" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:20">
+      <x:c r="A45" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="D45" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="E45" s="3">
+        <x:v>45907.4207256597</x:v>
+      </x:c>
+      <x:c r="F45" s="2" t="s"/>
+      <x:c r="G45" s="2" t="s"/>
+      <x:c r="H45" s="2" t="s"/>
+      <x:c r="I45" s="2" t="s"/>
+      <x:c r="J45" s="2" t="s"/>
+      <x:c r="K45" s="2" t="s"/>
+      <x:c r="L45" s="2" t="s"/>
+      <x:c r="M45" s="2" t="s"/>
+      <x:c r="N45" s="2" t="s"/>
+      <x:c r="O45" s="2" t="s"/>
+      <x:c r="P45" s="2" t="s"/>
+      <x:c r="Q45" s="2" t="s"/>
+      <x:c r="R45" s="2" t="s"/>
+      <x:c r="S45" s="2" t="s"/>
+      <x:c r="T45" s="2" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:20">
+      <x:c r="A46" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="D46" s="2" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="E46" s="3">
+        <x:v>45907.4194018519</x:v>
+      </x:c>
+      <x:c r="F46" s="2" t="s"/>
+      <x:c r="G46" s="2" t="s"/>
+      <x:c r="H46" s="2" t="s"/>
+      <x:c r="I46" s="2" t="s"/>
+      <x:c r="J46" s="2" t="s"/>
+      <x:c r="K46" s="2" t="s"/>
+      <x:c r="L46" s="2" t="s"/>
+      <x:c r="M46" s="2" t="s"/>
+      <x:c r="N46" s="2" t="s"/>
+      <x:c r="O46" s="2" t="s"/>
+      <x:c r="P46" s="2" t="s"/>
+      <x:c r="Q46" s="2" t="s"/>
+      <x:c r="R46" s="2" t="s"/>
+      <x:c r="S46" s="2" t="s"/>
+      <x:c r="T46" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS201_Lecture-35668.xlsx
+++ b/downloaded_files/CMPS201_Lecture-35668.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -291,6 +291,15 @@
     <x:t>fares</x:t>
   </x:si>
   <x:si>
+    <x:t>1230083</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كنزي احمد حسين عبدالعزيز</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kenzie Ahmed Hussein</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230229</x:t>
   </x:si>
   <x:si>
@@ -406,6 +415,15 @@
   </x:si>
   <x:si>
     <x:t>Mennatullah Mohammad Mahmoud Abolfotoh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230275</x:t>
+  </x:si>
+  <x:si>
+    <x:t>هانيا هيثم محمود سلطان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hunya haytham mahmoud  soltan</x:t>
   </x:si>
   <x:si>
     <x:t>1230130</x:t>
@@ -548,7 +566,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -848,7 +866,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T46"/>
+  <x:dimension ref="A1:T48"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1865,7 +1883,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4348783565</x:v>
+        <x:v>45929.0170439815</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1897,7 +1915,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4396443634</x:v>
+        <x:v>45907.4348783565</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1929,7 +1947,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45927.434502662</x:v>
+        <x:v>45907.4396443634</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1961,7 +1979,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45909.4321384259</x:v>
+        <x:v>45927.434502662</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1993,7 +2011,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4200544329</x:v>
+        <x:v>45909.4321384259</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2025,7 +2043,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4144954861</x:v>
+        <x:v>45907.4200544329</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2057,7 +2075,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4169326389</x:v>
+        <x:v>45907.4144954861</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2089,7 +2107,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.4620550116</x:v>
+        <x:v>45907.4169326389</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2121,7 +2139,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45928.4033412037</x:v>
+        <x:v>45907.4620550116</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2153,7 +2171,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.4200175116</x:v>
+        <x:v>45928.4033412037</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2185,7 +2203,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6914562847</x:v>
+        <x:v>45907.4200175116</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2217,7 +2235,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.486253125</x:v>
+        <x:v>45907.6914562847</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2249,7 +2267,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.42281875</x:v>
+        <x:v>45907.486253125</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2281,7 +2299,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45909.4416767014</x:v>
+        <x:v>45907.42281875</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2313,7 +2331,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.4207256597</x:v>
+        <x:v>45929.0174010069</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2345,7 +2363,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.4194018519</x:v>
+        <x:v>45909.4416767014</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2362,6 +2380,70 @@
       <x:c r="R46" s="2" t="s"/>
       <x:c r="S46" s="2" t="s"/>
       <x:c r="T46" s="2" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:20">
+      <x:c r="A47" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B47" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D47" s="2" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="E47" s="3">
+        <x:v>45907.4207256597</x:v>
+      </x:c>
+      <x:c r="F47" s="2" t="s"/>
+      <x:c r="G47" s="2" t="s"/>
+      <x:c r="H47" s="2" t="s"/>
+      <x:c r="I47" s="2" t="s"/>
+      <x:c r="J47" s="2" t="s"/>
+      <x:c r="K47" s="2" t="s"/>
+      <x:c r="L47" s="2" t="s"/>
+      <x:c r="M47" s="2" t="s"/>
+      <x:c r="N47" s="2" t="s"/>
+      <x:c r="O47" s="2" t="s"/>
+      <x:c r="P47" s="2" t="s"/>
+      <x:c r="Q47" s="2" t="s"/>
+      <x:c r="R47" s="2" t="s"/>
+      <x:c r="S47" s="2" t="s"/>
+      <x:c r="T47" s="2" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:20">
+      <x:c r="A48" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B48" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="C48" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="D48" s="2" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="E48" s="3">
+        <x:v>45907.4194018519</x:v>
+      </x:c>
+      <x:c r="F48" s="2" t="s"/>
+      <x:c r="G48" s="2" t="s"/>
+      <x:c r="H48" s="2" t="s"/>
+      <x:c r="I48" s="2" t="s"/>
+      <x:c r="J48" s="2" t="s"/>
+      <x:c r="K48" s="2" t="s"/>
+      <x:c r="L48" s="2" t="s"/>
+      <x:c r="M48" s="2" t="s"/>
+      <x:c r="N48" s="2" t="s"/>
+      <x:c r="O48" s="2" t="s"/>
+      <x:c r="P48" s="2" t="s"/>
+      <x:c r="Q48" s="2" t="s"/>
+      <x:c r="R48" s="2" t="s"/>
+      <x:c r="S48" s="2" t="s"/>
+      <x:c r="T48" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS201_Lecture-35668.xlsx
+++ b/downloaded_files/CMPS201_Lecture-35668.xlsx
@@ -1053,7 +1053,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45928.0423207176</x:v>
+        <x:v>45929.4706865741</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>

--- a/downloaded_files/CMPS201_Lecture-35668.xlsx
+++ b/downloaded_files/CMPS201_Lecture-35668.xlsx
@@ -396,7 +396,7 @@
     <x:t>مريم رامى محمد سعيد زكى رضوان</x:t>
   </x:si>
   <x:si>
-    <x:t>MARIM</x:t>
+    <x:t>Mariam Ramy Mohamed Said Zaki Radwan</x:t>
   </x:si>
   <x:si>
     <x:t>1230260</x:t>

--- a/downloaded_files/CMPS201_Lecture-35668.xlsx
+++ b/downloaded_files/CMPS201_Lecture-35668.xlsx
@@ -39,7 +39,7 @@
     <x:t>أحمد محمد سيد صابر محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Mohamed Sayed Saber</x:t>
+    <x:t xml:space="preserve">Ahmed Mohamed Sayed Saber Mohamed </x:t>
   </x:si>
   <x:si>
     <x:t>1230142</x:t>
@@ -111,7 +111,7 @@
     <x:t>بيشوي ماهر فؤاد بدرس بدروس</x:t>
   </x:si>
   <x:si>
-    <x:t>Beshoy Maher Fouad Badras</x:t>
+    <x:t>Beshoy Maher Fouad Badras Badros</x:t>
   </x:si>
   <x:si>
     <x:t>1230176</x:t>
